--- a/PChemLab/Lab 3.xlsx
+++ b/PChemLab/Lab 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\repos\Courses-Fall2022\PChemLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21163CD2-C1FE-4A42-9E04-66D445B27782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9A7D1-A2B8-457B-91E4-EC788D1FDF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="1575" windowWidth="17100" windowHeight="10260" activeTab="1" xr2:uid="{EFE65110-107A-44E6-9116-D3E3FC84E6F0}"/>
+    <workbookView xWindow="11700" yWindow="1485" windowWidth="17100" windowHeight="10260" xr2:uid="{EFE65110-107A-44E6-9116-D3E3FC84E6F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88965B1D-CC53-48FB-BF04-D278D673D193}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FC4062-6F78-49AD-9A1E-21844A31E752}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,15 +1412,15 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>75.3</v>
+        <v>-75.3</v>
       </c>
       <c r="C2">
-        <f>A2+1</f>
+        <f t="shared" ref="C2:C43" si="0">A2+1</f>
         <v>3</v>
       </c>
       <c r="D2">
-        <f>B2+273.15</f>
-        <v>348.45</v>
+        <f t="shared" ref="D2:D43" si="1">B2+273.15</f>
+        <v>197.84999999999997</v>
       </c>
       <c r="E2">
         <f>LOG(C2,2.71828182846)</f>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="F2">
         <f>1/D2</f>
-        <v>2.8698522026115655E-3</v>
+        <v>5.0543340914834482E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,23 +1436,23 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>74.5</v>
+        <v>-74.5</v>
       </c>
       <c r="C3">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D3">
-        <f>B3+273.15</f>
-        <v>347.65</v>
+        <f t="shared" si="1"/>
+        <v>198.64999999999998</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E43" si="0">LOG(C3,2.71828182846)</f>
+        <f t="shared" ref="E3:E43" si="2">LOG(C3,2.71828182846)</f>
         <v>1.609437912433535</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F43" si="1">1/D3</f>
-        <v>2.8764562059542644E-3</v>
+        <f t="shared" ref="F3:F43" si="3">1/D3</f>
+        <v>5.033979360684622E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,23 +1460,23 @@
         <v>5.5</v>
       </c>
       <c r="B4">
-        <v>73.5</v>
+        <v>-73.5</v>
       </c>
       <c r="C4">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="D4">
-        <f>B4+273.15</f>
-        <v>346.65</v>
+        <f t="shared" si="1"/>
+        <v>199.64999999999998</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8718021769009339</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>2.8847540747151306E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.0087653393438526E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,23 +1484,23 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>72.599999999999994</v>
+        <v>-72.599999999999994</v>
       </c>
       <c r="C5">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D5">
-        <f>B5+273.15</f>
-        <v>345.75</v>
+        <f t="shared" si="1"/>
+        <v>200.54999999999998</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0794415416791052</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>2.8922631959508315E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.9862877088007983E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,23 +1508,23 @@
         <v>8.5</v>
       </c>
       <c r="B6">
-        <v>71.7</v>
+        <v>-71.7</v>
       </c>
       <c r="C6">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="D6">
-        <f>B6+273.15</f>
-        <v>344.84999999999997</v>
+        <f t="shared" si="1"/>
+        <v>201.45</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2512917986057044</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>2.8998115122517041E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.964010920824026E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,23 +1532,23 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>70.900000000000006</v>
+        <v>-70.900000000000006</v>
       </c>
       <c r="C7">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D7">
-        <f>B7+273.15</f>
-        <v>344.04999999999995</v>
+        <f t="shared" si="1"/>
+        <v>202.24999999999997</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3978952727975282</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>2.9065542799011778E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.9443757725587149E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,23 +1556,23 @@
         <v>11.5</v>
       </c>
       <c r="B8">
-        <v>70.3</v>
+        <v>-70.3</v>
       </c>
       <c r="C8">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="D8">
-        <f>B8+273.15</f>
-        <v>343.45</v>
+        <f t="shared" si="1"/>
+        <v>202.84999999999997</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5257286443073683</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>2.9116319697190278E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.9297510475720986E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,23 +1580,23 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>69.400000000000006</v>
+        <v>-69.400000000000006</v>
       </c>
       <c r="C9">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D9">
-        <f>B9+273.15</f>
-        <v>342.54999999999995</v>
+        <f t="shared" si="1"/>
+        <v>203.74999999999997</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6390573296143316</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>2.9192818566632613E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.9079754601226997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,23 +1604,23 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>68.900000000000006</v>
+        <v>-68.900000000000006</v>
       </c>
       <c r="C10">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D10">
-        <f>B10+273.15</f>
-        <v>342.04999999999995</v>
+        <f t="shared" si="1"/>
+        <v>204.24999999999997</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7080502011012588</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>2.9235491887151005E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8959608323133419E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,23 +1628,23 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>68.2</v>
+        <v>-68.2</v>
       </c>
       <c r="C11">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D11">
-        <f>B11+273.15</f>
-        <v>341.34999999999997</v>
+        <f t="shared" si="1"/>
+        <v>204.95</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.833213344055221</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>2.9295444558371177E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8792388387411565E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,23 +1652,23 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>67.599999999999994</v>
+        <v>-67.599999999999994</v>
       </c>
       <c r="C12">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D12">
-        <f>B12+273.15</f>
-        <v>340.75</v>
+        <f t="shared" si="1"/>
+        <v>205.54999999999998</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8903717578951493</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>2.93470286133529E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8649963512527369E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1676,23 +1676,23 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>67.099999999999994</v>
+        <v>-67.099999999999994</v>
       </c>
       <c r="C13">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D13">
-        <f>B13+273.15</f>
-        <v>340.25</v>
+        <f t="shared" si="1"/>
+        <v>206.04999999999998</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.944438979165406</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>2.9390154298310064E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8531909730647905E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,23 +1700,23 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>66.5</v>
+        <v>-66.5</v>
       </c>
       <c r="C14">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D14">
-        <f>B14+273.15</f>
-        <v>339.65</v>
+        <f t="shared" si="1"/>
+        <v>206.64999999999998</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0445224377223536</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>2.9442072721919624E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8390999274135014E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,23 +1724,23 @@
         <v>21.5</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>-66</v>
       </c>
       <c r="C15">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="D15">
-        <f>B15+273.15</f>
-        <v>339.15</v>
+        <f t="shared" si="1"/>
+        <v>207.14999999999998</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1135153092092804</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>2.9485478401887074E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8274197441467541E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,23 +1748,23 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>65.400000000000006</v>
+        <v>-65.400000000000006</v>
       </c>
       <c r="C16">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D16">
-        <f>B16+273.15</f>
-        <v>338.54999999999995</v>
+        <f t="shared" si="1"/>
+        <v>207.74999999999997</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1780538303468293</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>2.9537734455767246E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8134777376654643E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,23 +1772,23 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>64.900000000000006</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="C17">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D17">
-        <f>B17+273.15</f>
-        <v>338.04999999999995</v>
+        <f t="shared" si="1"/>
+        <v>208.24999999999997</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2188758248670699</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>2.958142286643988E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8019207683073235E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,23 +1796,23 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>64.400000000000006</v>
+        <v>-64.400000000000006</v>
       </c>
       <c r="C18">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D18">
-        <f>B18+273.15</f>
-        <v>337.54999999999995</v>
+        <f t="shared" si="1"/>
+        <v>208.74999999999997</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2958368660031714</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>2.9625240705080731E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7904191616766475E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,23 +1820,23 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>-64</v>
       </c>
       <c r="C19">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D19">
-        <f>B19+273.15</f>
-        <v>337.15</v>
+        <f t="shared" si="1"/>
+        <v>209.14999999999998</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3322045101740332</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>2.9660388551090021E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7812574707147984E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,23 +1844,23 @@
         <v>28.5</v>
       </c>
       <c r="B20">
-        <v>63.5</v>
+        <v>-63.5</v>
       </c>
       <c r="C20">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
       <c r="D20">
-        <f>B20+273.15</f>
-        <v>336.65</v>
+        <f t="shared" si="1"/>
+        <v>209.64999999999998</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3843902633445855</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>2.9704440813901681E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7698545194371578E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,23 +1868,23 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>-63</v>
       </c>
       <c r="C21">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D21">
-        <f>B21+273.15</f>
-        <v>336.15</v>
+        <f t="shared" si="1"/>
+        <v>210.14999999999998</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4339872044839401</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>2.974862412613417E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7585058291696415E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,23 +1892,23 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>62.5</v>
+        <v>-62.5</v>
       </c>
       <c r="C22">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D22">
-        <f>B22+273.15</f>
-        <v>335.65</v>
+        <f t="shared" si="1"/>
+        <v>210.64999999999998</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4657359027985093</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>2.9792939073439596E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7472110135295519E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,23 +1916,23 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>62.1</v>
+        <v>-62.1</v>
       </c>
       <c r="C23">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D23">
-        <f>B23+273.15</f>
-        <v>335.25</v>
+        <f t="shared" si="1"/>
+        <v>211.04999999999998</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.526360524614923</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>2.9828486204325128E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7382136934375745E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,23 +1940,23 @@
         <v>34.5</v>
       </c>
       <c r="B24">
-        <v>61.7</v>
+        <v>-61.7</v>
       </c>
       <c r="C24">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
       <c r="D24">
-        <f>B24+273.15</f>
-        <v>334.84999999999997</v>
+        <f t="shared" si="1"/>
+        <v>211.45</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.569532696480116</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>2.9864118261908319E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7292504138094112E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,23 +1964,23 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>61.2</v>
+        <v>-61.2</v>
       </c>
       <c r="C25">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D25">
-        <f>B25+273.15</f>
-        <v>334.34999999999997</v>
+        <f t="shared" si="1"/>
+        <v>211.95</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.610917912642956</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>2.9908778226409452E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7180938900684127E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1988,23 +1988,23 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>60.7</v>
+        <v>-60.7</v>
       </c>
       <c r="C26">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D26">
-        <f>B26+273.15</f>
-        <v>333.84999999999997</v>
+        <f t="shared" si="1"/>
+        <v>212.45</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.637586159725108</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>2.9953571963456647E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7069898799717586E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,23 +2012,23 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>60.4</v>
+        <v>-60.4</v>
       </c>
       <c r="C27">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D27">
-        <f>B27+273.15</f>
-        <v>333.54999999999995</v>
+        <f t="shared" si="1"/>
+        <v>212.74999999999997</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6888794541126404</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>2.9980512666766606E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7003525264394837E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,23 +2036,23 @@
         <v>40.5</v>
       </c>
       <c r="B28">
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="C28">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
       <c r="D28">
-        <f>B28+273.15</f>
-        <v>333.15</v>
+        <f t="shared" si="1"/>
+        <v>213.14999999999998</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7256934272353437</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>3.0016509079993999E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6915317851278443E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,23 +2060,23 @@
         <v>42</v>
       </c>
       <c r="B29">
-        <v>59.7</v>
+        <v>-59.7</v>
       </c>
       <c r="C29">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D29">
-        <f>B29+273.15</f>
-        <v>332.84999999999997</v>
+        <f t="shared" si="1"/>
+        <v>213.45</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7612001156922412</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>3.0043563166591561E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6849379245724994E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,23 +2084,23 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>59.3</v>
+        <v>-59.3</v>
       </c>
       <c r="C30">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D30">
-        <f>B30+273.15</f>
-        <v>332.45</v>
+        <f t="shared" si="1"/>
+        <v>213.84999999999997</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8066624897689825</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>3.0079711234772149E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6761748889408471E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,23 +2108,23 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>59.1</v>
+        <v>-59.1</v>
       </c>
       <c r="C31">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D31">
-        <f>B31+273.15</f>
-        <v>332.25</v>
+        <f t="shared" si="1"/>
+        <v>214.04999999999998</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8286413964877504</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>3.0097817908201654E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6718056528848402E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,23 +2132,23 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>58.6</v>
+        <v>-58.6</v>
       </c>
       <c r="C32">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D32">
-        <f>B32+273.15</f>
-        <v>331.75</v>
+        <f t="shared" si="1"/>
+        <v>214.54999999999998</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8712010109065313</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>3.0143180105501131E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6609182008855747E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2156,23 +2156,23 @@
         <v>49</v>
       </c>
       <c r="B33">
-        <v>58.3</v>
+        <v>-58.3</v>
       </c>
       <c r="C33">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D33">
-        <f>B33+273.15</f>
-        <v>331.45</v>
+        <f t="shared" si="1"/>
+        <v>214.84999999999997</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9120230054267719</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>3.017046311660884E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6544100535257163E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2180,23 +2180,23 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <v>57.9</v>
+        <v>-57.9</v>
       </c>
       <c r="C34">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="D34">
-        <f>B34+273.15</f>
-        <v>331.04999999999995</v>
+        <f t="shared" si="1"/>
+        <v>215.24999999999997</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9318256327229446</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>3.0206917384080958E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6457607433217198E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2204,23 +2204,23 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <v>57.6</v>
+        <v>-57.6</v>
       </c>
       <c r="C35">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D35">
-        <f>B35+273.15</f>
-        <v>330.75</v>
+        <f t="shared" si="1"/>
+        <v>215.54999999999998</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9702919135507271</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>3.0234315948601664E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6392948271862678E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,23 +2228,23 @@
         <v>53</v>
       </c>
       <c r="B36">
-        <v>57.2</v>
+        <v>-57.2</v>
       </c>
       <c r="C36">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="D36">
-        <f>B36+273.15</f>
-        <v>330.34999999999997</v>
+        <f t="shared" si="1"/>
+        <v>215.95</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9889840465628734</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>3.0270924776751931E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6307015512850203E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2252,23 +2252,23 @@
         <v>55</v>
       </c>
       <c r="B37">
-        <v>56.9</v>
+        <v>-56.9</v>
       </c>
       <c r="C37">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="D37">
-        <f>B37+273.15</f>
-        <v>330.04999999999995</v>
+        <f t="shared" si="1"/>
+        <v>216.24999999999997</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0253516907337357</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>3.029843963035904E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6242774566473991E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,23 +2276,23 @@
         <v>57</v>
       </c>
       <c r="B38">
-        <v>56.4</v>
+        <v>-56.4</v>
       </c>
       <c r="C38">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="D38">
-        <f>B38+273.15</f>
-        <v>329.54999999999995</v>
+        <f t="shared" si="1"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0604430105449927</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>3.0344409042633901E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6136101499423309E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,23 +2300,23 @@
         <v>59</v>
       </c>
       <c r="B39">
-        <v>56.1</v>
+        <v>-56.1</v>
       </c>
       <c r="C39">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D39">
-        <f>B39+273.15</f>
-        <v>329.25</v>
+        <f t="shared" si="1"/>
+        <v>217.04999999999998</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0943445622206625</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>3.0372057706909645E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6072333563695004E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2324,23 +2324,23 @@
         <v>59.5</v>
       </c>
       <c r="B40">
-        <v>56.3</v>
+        <v>-56.3</v>
       </c>
       <c r="C40">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
       <c r="D40">
-        <f>B40+273.15</f>
-        <v>329.45</v>
+        <f t="shared" si="1"/>
+        <v>216.84999999999997</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1026433650353544</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>3.0353619669145548E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.611482591653217E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,23 +2348,23 @@
         <v>60</v>
       </c>
       <c r="B41">
-        <v>56.4</v>
+        <v>-56.4</v>
       </c>
       <c r="C41">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="D41">
-        <f>B41+273.15</f>
-        <v>329.54999999999995</v>
+        <f t="shared" si="1"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1108738641718672</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>3.0344409042633901E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6136101499423309E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2372,23 +2372,23 @@
         <v>60.5</v>
       </c>
       <c r="B42">
-        <v>56.3</v>
+        <v>-56.3</v>
       </c>
       <c r="C42">
-        <f>A42+1</f>
+        <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
       <c r="D42">
-        <f>B42+273.15</f>
-        <v>329.45</v>
+        <f t="shared" si="1"/>
+        <v>216.84999999999997</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1190371748110257</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>3.0353619669145548E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.611482591653217E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,23 +2396,23 @@
         <v>60.5</v>
       </c>
       <c r="B43">
-        <v>56.5</v>
+        <v>-56.5</v>
       </c>
       <c r="C43">
-        <f>A43+1</f>
+        <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
       <c r="D43">
-        <f>B43+273.15</f>
-        <v>329.65</v>
+        <f t="shared" si="1"/>
+        <v>216.64999999999998</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1190371748110257</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>3.033520400424693E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6157396722824838E-3</v>
       </c>
     </row>
   </sheetData>

--- a/PChemLab/Lab 3.xlsx
+++ b/PChemLab/Lab 3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\repos\Courses-Fall2022\PChemLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9A7D1-A2B8-457B-91E4-EC788D1FDF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5188B-859B-4A60-B2BD-A83FCFD6AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="1485" windowWidth="17100" windowHeight="10260" xr2:uid="{EFE65110-107A-44E6-9116-D3E3FC84E6F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EFE65110-107A-44E6-9116-D3E3FC84E6F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
     <sheet name="Trial 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +35,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>T(C)</t>
   </si>
   <si>
-    <t>P(atm,gauge)</t>
+    <t>T(K)</t>
   </si>
   <si>
-    <t>T(K)</t>
+    <t>1/T(K^-)</t>
+  </si>
+  <si>
+    <t>ln(P)(ln psi)</t>
+  </si>
+  <si>
+    <t>P(psi,gauge)</t>
   </si>
   <si>
     <t>P(atm)</t>
@@ -51,13 +58,34 @@
     <t>ln(P)(ln atm)</t>
   </si>
   <si>
-    <t>1/T(K^-)</t>
+    <t>T1 (K)</t>
+  </si>
+  <si>
+    <t>T2 (K)</t>
+  </si>
+  <si>
+    <t>P1 (atm)</t>
+  </si>
+  <si>
+    <t>P2 (atm)</t>
+  </si>
+  <si>
+    <t>Pressure ATM</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>26565+-719</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,8 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,6 +134,3586 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trial 1'!$E$2:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.25219569803519792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39943754294062339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52775580379138365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60498014309169867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67666603262107383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74355501000283286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80624898577418058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83618108866419172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.893484575763422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94768158158622806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99909166767115365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0238383986183761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0715671251301371</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.117121218792579</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1606902370274386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1817829748777104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.222678903077471</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2425163208020931</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2810482406515682</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.318150373756946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3361976784642935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3713436151788156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3884639673806893</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4218496740857383</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4541566912412027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4699270431721332</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4854525474411344</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5157986220884407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5452508700512912</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5738604426202267</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.587864030023747</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6152962878407338</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.628735283921251</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.628735283921251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.628735283921251</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.628735283921251</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.628735283921251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.628735283921251</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.628735283921251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trial 1'!$F$2:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>5.0390526581002779E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0037528146109587E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.964010920824026E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9419322955275525E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9152125829442124E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8959608323133419E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8697345994643303E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8579062424095225E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8437878420925168E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.834421078075901E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8181161165984105E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8042277203939471E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7904191616766475E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7766897540004781E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7698545194371578E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7585058291696415E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7449584816132862E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7337278106508885E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.727014890096904E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7158688988446123E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7047753469771818E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.698144233027955E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6893317702227438E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6827440880355892E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6718056528848402E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6630916297505246E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6565774155995351E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6479200557750415E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6436034362665433E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6328468844104706E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6264168401572983E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6200046200046202E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.6136101499423309E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.611482591653217E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.611482591653217E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.611482591653217E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.611482591653217E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.611482591653217E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.611482591653217E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1281-46B8-A5B5-29E8BE063424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1841557743"/>
+        <c:axId val="1841559823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1841557743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841559823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1841559823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841557743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.421172353455818E-2"/>
+                  <c:y val="-0.48620333916593761"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trial 2'!$E$3:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>5.033979360684622E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0087653393438526E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9862877088007983E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.964010920824026E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9443757725587149E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9297510475720986E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9079754601226997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8959608323133419E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8792388387411565E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8649963512527369E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8531909730647905E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8390999274135014E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8274197441467541E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8134777376654643E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8019207683073235E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7904191616766475E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7812574707147984E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7698545194371578E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7585058291696415E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7472110135295519E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7382136934375745E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7292504138094112E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7180938900684127E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7069898799717586E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7003525264394837E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6915317851278443E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6849379245724994E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6761748889408471E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6718056528848402E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6609182008855747E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6544100535257163E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6457607433217198E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.6392948271862678E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6307015512850203E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6242774566473991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6136101499423309E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6072333563695004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trial 2'!$F$3:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.25219569803519792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32852419606212907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39943754294062339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46565345986425533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52775580379138365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5862259177027348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64146530870677632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67666603262107383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74355501000283286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77539323427026319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80624898577418058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86524323727084762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90731167905836363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94768158158622806</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97371696287154474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0238383986183761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0479874887669005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0831516689202174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.117121218792579</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1391429915634783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1817829748777104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2126106444096654</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2425163208020931</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2619678578528344</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2997713683708036</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3272147387090114</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.353925043483724</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3884639673806893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4052961399396711</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4381336449095914</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4699270431721332</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4854525474411344</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5157986220884407</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5306331715148753</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5596579663019239</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.587864030023747</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6152962878407338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-738C-46E5-AF8C-62EC65063B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="614673823"/>
+        <c:axId val="614675071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="614673823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0600000000000011E-3"/>
+          <c:min val="4.5500000000000011E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inverse temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614675071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0000000000000003E-4"/>
+        <c:minorUnit val="5.0000000000000023E-5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="614675071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Logarithmic Pressure (ln atm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614673823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trial 2'!$C$3:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>198.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.54999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202.24999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.74999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204.24999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205.54999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206.04999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>207.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207.74999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>208.24999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>208.74999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>209.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>211.04999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>211.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>211.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>212.45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212.74999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>213.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>213.45</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>213.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>214.04999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>214.54999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>214.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>215.24999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>215.54999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>216.24999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216.74999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>217.04999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>216.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>216.74999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>216.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>216.64999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trial 2'!$D$3:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.2868478462399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3889168462399999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4909858462399999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5930548462399998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6951238462399998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7971928462399998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8992618462399997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9673078462399998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1033998462399999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1714458462399997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.23949184624</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3755838462399996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4776528462399998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5797218462399996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6477678462399998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7838598462399999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8519058462399998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9539748462399995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0560438462399997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1240898462399995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2601818462399996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3622508462399998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4643198462399996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5323658462399998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6684578462399995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7705268462399997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8725958462399999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.00868784624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0767338462399998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2128258462399994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.34891784624</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4169638462399998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5530558462399995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6211018462399993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7571938462399999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8932858462399995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0293778462399992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0634008462399995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0974238462399999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1314468462399994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.1314468462399994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-383C-4A6E-8CEC-38AD6D44B59F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="730902927"/>
+        <c:axId val="730908335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="730902927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="000." sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730908335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="730908335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure (atm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730902927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136A4AAF-76B1-783B-22B6-0E8D9F754611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227772</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>509380</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB368F72-5E8C-6AA4-CBE8-A2148319BA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409989</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>48867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78684</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>125067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102614D0-B849-5C1B-0FF7-A98066CA96C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88965B1D-CC53-48FB-BF04-D278D673D193}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,22 +4028,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -444,8 +4054,8 @@
         <v>-74.7</v>
       </c>
       <c r="C2">
-        <f>A2+1</f>
-        <v>5</v>
+        <f>(A2+14.91144)*0.068046</f>
+        <v>1.2868478462399999</v>
       </c>
       <c r="D2">
         <f>B2+273.15</f>
@@ -453,7 +4063,7 @@
       </c>
       <c r="E2">
         <f>LOG(C2,2.71828182846)</f>
-        <v>1.609437912433535</v>
+        <v>0.25219569803519792</v>
       </c>
       <c r="F2">
         <f>1/D2</f>
@@ -468,8 +4078,8 @@
         <v>-73.3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C40" si="0">A3+1</f>
-        <v>8</v>
+        <f t="shared" ref="C3:C40" si="0">(A3+14.91144)*0.068046</f>
+        <v>1.4909858462399999</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D40" si="1">B3+273.15</f>
@@ -477,7 +4087,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E40" si="2">LOG(C3,2.71828182846)</f>
-        <v>2.0794415416791052</v>
+        <v>0.39943754294062339</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F40" si="3">1/D3</f>
@@ -493,7 +4103,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1.6951238462399998</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
@@ -501,7 +4111,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>2.3978952727975282</v>
+        <v>0.52775580379138365</v>
       </c>
       <c r="F4">
         <f t="shared" si="3"/>
@@ -517,7 +4127,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>1.8312158462399999</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
@@ -525,7 +4135,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>2.5649493574606357</v>
+        <v>0.60498014309169867</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
@@ -541,7 +4151,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1.9673078462399998</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
@@ -549,7 +4159,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>2.7080502011012588</v>
+        <v>0.67666603262107383</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
@@ -565,7 +4175,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2.1033998462399999</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
@@ -573,7 +4183,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>2.833213344055221</v>
+        <v>0.74355501000283286</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
@@ -589,7 +4199,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>2.23949184624</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -597,7 +4207,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>2.944438979165406</v>
+        <v>0.80624898577418058</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
@@ -613,7 +4223,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>2.3075378462399998</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -621,7 +4231,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>2.9957322735529384</v>
+        <v>0.83618108866419172</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
@@ -637,7 +4247,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>2.4436298462399999</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -645,7 +4255,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>3.0910424533572303</v>
+        <v>0.893484575763422</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
@@ -661,7 +4271,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>2.5797218462399996</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
@@ -669,7 +4279,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>3.1780538303468293</v>
+        <v>0.94768158158622806</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
@@ -685,7 +4295,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>2.7158138462399997</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -693,7 +4303,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>3.2580965380203377</v>
+        <v>0.99909166767115365</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
@@ -709,7 +4319,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>2.7838598462399999</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -717,7 +4327,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>3.2958368660031714</v>
+        <v>1.0238383986183761</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
@@ -733,7 +4343,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>2.9199518462399996</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
@@ -741,7 +4351,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>3.3672958299852911</v>
+        <v>1.0715671251301371</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
@@ -757,7 +4367,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>3.0560438462399997</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
@@ -765,7 +4375,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>3.4339872044839401</v>
+        <v>1.117121218792579</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
@@ -781,7 +4391,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>3.1921358462399998</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -789,7 +4399,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>3.4965075614652519</v>
+        <v>1.1606902370274386</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
@@ -805,7 +4415,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>3.2601818462399996</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -813,7 +4423,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>3.526360524614923</v>
+        <v>1.1817829748777104</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
@@ -829,7 +4439,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>3.3962738462399997</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -837,7 +4447,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>3.5835189384548509</v>
+        <v>1.222678903077471</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
@@ -853,7 +4463,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>3.4643198462399996</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
@@ -861,7 +4471,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>3.610917912642956</v>
+        <v>1.2425163208020931</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
@@ -877,7 +4487,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>3.6004118462399997</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
@@ -885,7 +4495,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>3.6635616461283593</v>
+        <v>1.2810482406515682</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
@@ -901,7 +4511,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>3.7365038462399998</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -909,7 +4519,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>3.7135720667030037</v>
+        <v>1.318150373756946</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
@@ -925,7 +4535,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>3.8045498462399996</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -933,7 +4543,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>3.7376696182820557</v>
+        <v>1.3361976784642935</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
@@ -949,7 +4559,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>3.9406418462399997</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -957,7 +4567,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>3.7841896339169319</v>
+        <v>1.3713436151788156</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
@@ -973,7 +4583,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>4.00868784624</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -981,7 +4591,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>3.8066624897689825</v>
+        <v>1.3884639673806893</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
@@ -997,7 +4607,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>4.1447798462399996</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -1005,7 +4615,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>3.8501476017087062</v>
+        <v>1.4218496740857383</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
@@ -1021,7 +4631,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>4.2808718462399993</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -1029,7 +4639,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>3.8918202981092596</v>
+        <v>1.4541566912412027</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
@@ -1045,7 +4655,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>4.34891784624</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -1053,7 +4663,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>3.9120230054267719</v>
+        <v>1.4699270431721332</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -1069,7 +4679,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>4.4169638462399998</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -1077,7 +4687,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>3.9318256327229446</v>
+        <v>1.4854525474411344</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
@@ -1093,7 +4703,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>4.5530558462399995</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -1101,7 +4711,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>3.9702919135507271</v>
+        <v>1.5157986220884407</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
@@ -1117,7 +4727,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>4.68914784624</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -1125,7 +4735,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>4.0073331852310634</v>
+        <v>1.5452508700512912</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
@@ -1141,7 +4751,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>4.8252398462399997</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -1149,7 +4759,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>4.0430512678331301</v>
+        <v>1.5738604426202267</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -1165,7 +4775,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>4.8932858462399995</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
@@ -1173,7 +4783,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>4.0604430105449927</v>
+        <v>1.587864030023747</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
@@ -1189,7 +4799,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>5.0293778462399992</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -1197,7 +4807,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>4.0943445622206625</v>
+        <v>1.6152962878407338</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -1213,7 +4823,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -1221,7 +4831,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>1.628735283921251</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
@@ -1237,7 +4847,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -1245,7 +4855,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>1.628735283921251</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
@@ -1261,7 +4871,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -1269,7 +4879,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>1.628735283921251</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
@@ -1285,7 +4895,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -1293,7 +4903,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>1.628735283921251</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
@@ -1309,7 +4919,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -1317,7 +4927,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>1.628735283921251</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
@@ -1333,7 +4943,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -1341,7 +4951,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>1.628735283921251</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
@@ -1357,7 +4967,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -1365,7 +4975,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>1.628735283921251</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
@@ -1374,1045 +4984,1711 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FC4062-6F78-49AD-9A1E-21844A31E752}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-75.3</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2">
+        <f>A2+273.15</f>
+        <v>197.84999999999997</v>
+      </c>
+      <c r="D2">
+        <f>(B2+14.91144)*0.068046</f>
+        <v>1.1507558462399998</v>
+      </c>
+      <c r="E2">
+        <f>1/C2</f>
+        <v>5.0543340914834482E-3</v>
+      </c>
+      <c r="F2">
+        <f>LOG(D2,2.71828182846)</f>
+        <v>0.14041898407592859</v>
+      </c>
+      <c r="H2">
+        <v>0.14041898407592901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-74.5</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>-75.3</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C43" si="0">A2+1</f>
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D43" si="1">B2+273.15</f>
-        <v>197.84999999999997</v>
-      </c>
-      <c r="E2">
-        <f>LOG(C2,2.71828182846)</f>
-        <v>1.0986122886677239</v>
-      </c>
-      <c r="F2">
-        <f>1/D2</f>
-        <v>5.0543340914834482E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>-74.5</v>
-      </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="C3:C43" si="0">A3+273.15</f>
+        <v>198.64999999999998</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
-        <v>198.64999999999998</v>
+        <f t="shared" ref="D3:D43" si="1">(B3+14.91144)*0.068046</f>
+        <v>1.2868478462399999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E43" si="2">LOG(C3,2.71828182846)</f>
-        <v>1.609437912433535</v>
+        <f t="shared" ref="E3:E43" si="2">1/C3</f>
+        <v>5.033979360684622E-3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F43" si="3">1/D3</f>
-        <v>5.033979360684622E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D3,2.71828182846)</f>
+        <v>0.25219569803519792</v>
+      </c>
+      <c r="H3">
+        <f>LOG(D3,2.71828182846)-LOG(D3+0.034,2.71828182846)</f>
+        <v>-2.6078140129219274E-2</v>
+      </c>
+      <c r="J3">
+        <f>-3193.4*-8.314</f>
+        <v>26549.927600000003</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-73.5</v>
+      </c>
+      <c r="B4">
         <v>5.5</v>
       </c>
-      <c r="B4">
-        <v>-73.5</v>
-      </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>199.64999999999998</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>199.64999999999998</v>
+        <v>1.3889168462399999</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>1.8718021769009339</v>
+        <v>5.0087653393438526E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="3"/>
-        <v>5.0087653393438526E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D4,2.71828182846)</f>
+        <v>0.32852419606212907</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>-72.599999999999994</v>
+      </c>
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>-72.599999999999994</v>
-      </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>200.54999999999998</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>200.54999999999998</v>
+        <v>1.4909858462399999</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>2.0794415416791052</v>
+        <v>4.9862877088007983E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
-        <v>4.9862877088007983E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D5,2.71828182846)</f>
+        <v>0.39943754294062339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>-71.7</v>
+      </c>
+      <c r="B6">
         <v>8.5</v>
       </c>
-      <c r="B6">
-        <v>-71.7</v>
-      </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>201.45</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>201.45</v>
+        <v>1.5930548462399998</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>2.2512917986057044</v>
+        <v>4.964010920824026E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
-        <v>4.964010920824026E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D6,2.71828182846)</f>
+        <v>0.46565345986425533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>-70.900000000000006</v>
-      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>202.24999999999997</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>202.24999999999997</v>
+        <v>1.6951238462399998</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>2.3978952727975282</v>
+        <v>4.9443757725587149E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
-        <v>4.9443757725587149E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D7,2.71828182846)</f>
+        <v>0.52775580379138365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>-70.3</v>
+      </c>
+      <c r="B8">
         <v>11.5</v>
       </c>
-      <c r="B8">
-        <v>-70.3</v>
-      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>202.84999999999997</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>202.84999999999997</v>
+        <v>1.7971928462399998</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>2.5257286443073683</v>
+        <v>4.9297510475720986E-3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
-        <v>4.9297510475720986E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D8,2.71828182846)</f>
+        <v>0.5862259177027348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>-69.400000000000006</v>
+      </c>
+      <c r="B9">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>-69.400000000000006</v>
-      </c>
       <c r="C9">
         <f t="shared" si="0"/>
+        <v>203.74999999999997</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.8992618462399997</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>4.9079754601226997E-3</v>
+      </c>
+      <c r="F9">
+        <f>LOG(D9,2.71828182846)</f>
+        <v>0.64146530870677632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-68.900000000000006</v>
+      </c>
+      <c r="B10">
         <v>14</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>203.74999999999997</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>2.6390573296143316</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>4.9079754601226997E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>-68.900000000000006</v>
-      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>204.24999999999997</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>204.24999999999997</v>
+        <v>1.9673078462399998</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>2.7080502011012588</v>
+        <v>4.8959608323133419E-3</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>4.8959608323133419E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D10,2.71828182846)</f>
+        <v>0.67666603262107383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>-68.2</v>
+      </c>
+      <c r="B11">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>-68.2</v>
-      </c>
       <c r="C11">
         <f t="shared" si="0"/>
+        <v>204.95</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2.1033998462399999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>4.8792388387411565E-3</v>
+      </c>
+      <c r="F11">
+        <f>LOG(D11,2.71828182846)</f>
+        <v>0.74355501000283286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="B12">
         <v>17</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>204.95</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>2.833213344055221</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>4.8792388387411565E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>-67.599999999999994</v>
-      </c>
       <c r="C12">
         <f t="shared" si="0"/>
+        <v>205.54999999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.1714458462399997</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>4.8649963512527369E-3</v>
+      </c>
+      <c r="F12">
+        <f>LOG(D12,2.71828182846)</f>
+        <v>0.77539323427026319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-67.099999999999994</v>
+      </c>
+      <c r="B13">
         <v>18</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>205.54999999999998</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>2.8903717578951493</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>4.8649963512527369E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>-67.099999999999994</v>
-      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>206.04999999999998</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>206.04999999999998</v>
+        <v>2.23949184624</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>2.944438979165406</v>
+        <v>4.8531909730647905E-3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>4.8531909730647905E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D13,2.71828182846)</f>
+        <v>0.80624898577418058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>-66.5</v>
+      </c>
+      <c r="B14">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>-66.5</v>
-      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>206.64999999999998</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>206.64999999999998</v>
+        <v>2.3755838462399996</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>3.0445224377223536</v>
+        <v>4.8390999274135014E-3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>4.8390999274135014E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D14,2.71828182846)</f>
+        <v>0.86524323727084762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>-66</v>
+      </c>
+      <c r="B15">
         <v>21.5</v>
       </c>
-      <c r="B15">
-        <v>-66</v>
-      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>207.14999999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>207.14999999999998</v>
+        <v>2.4776528462399998</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>3.1135153092092804</v>
+        <v>4.8274197441467541E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
-        <v>4.8274197441467541E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f>LOG(D15,2.71828182846)</f>
+        <v>0.90731167905836363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>-65.400000000000006</v>
+      </c>
+      <c r="B16">
         <v>23</v>
       </c>
-      <c r="B16">
-        <v>-65.400000000000006</v>
-      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>207.74999999999997</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>207.74999999999997</v>
+        <v>2.5797218462399996</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>3.1780538303468293</v>
+        <v>4.8134777376654643E-3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>4.8134777376654643E-3</v>
+        <f>LOG(D16,2.71828182846)</f>
+        <v>0.94768158158622806</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>-64.900000000000006</v>
+      </c>
+      <c r="B17">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>-64.900000000000006</v>
-      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>208.24999999999997</v>
+        <v>2.6477678462399998</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>3.2188758248670699</v>
+        <v>4.8019207683073235E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>4.8019207683073235E-3</v>
+        <f>LOG(D17,2.71828182846)</f>
+        <v>0.97371696287154474</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>-64.400000000000006</v>
+      </c>
+      <c r="B18">
         <v>26</v>
       </c>
-      <c r="B18">
-        <v>-64.400000000000006</v>
-      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>208.74999999999997</v>
+        <v>2.7838598462399999</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>3.2958368660031714</v>
+        <v>4.7904191616766475E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>4.7904191616766475E-3</v>
+        <f>LOG(D18,2.71828182846)</f>
+        <v>1.0238383986183761</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>-64</v>
+      </c>
+      <c r="B19">
         <v>27</v>
       </c>
-      <c r="B19">
-        <v>-64</v>
-      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>209.14999999999998</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>209.14999999999998</v>
+        <v>2.8519058462399998</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>3.3322045101740332</v>
+        <v>4.7812574707147984E-3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
-        <v>4.7812574707147984E-3</v>
+        <f>LOG(D19,2.71828182846)</f>
+        <v>1.0479874887669005</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>-63.5</v>
+      </c>
+      <c r="B20">
         <v>28.5</v>
       </c>
-      <c r="B20">
-        <v>-63.5</v>
-      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>209.64999999999998</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>209.64999999999998</v>
+        <v>2.9539748462399995</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>3.3843902633445855</v>
+        <v>4.7698545194371578E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>4.7698545194371578E-3</v>
+        <f>LOG(D20,2.71828182846)</f>
+        <v>1.0831516689202174</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>-63</v>
+      </c>
+      <c r="B21">
         <v>30</v>
       </c>
-      <c r="B21">
-        <v>-63</v>
-      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>210.14999999999998</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>210.14999999999998</v>
+        <v>3.0560438462399997</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>3.4339872044839401</v>
+        <v>4.7585058291696415E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
-        <v>4.7585058291696415E-3</v>
+        <f>LOG(D21,2.71828182846)</f>
+        <v>1.117121218792579</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>-62.5</v>
+      </c>
+      <c r="B22">
         <v>31</v>
       </c>
-      <c r="B22">
-        <v>-62.5</v>
-      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>210.64999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>210.64999999999998</v>
+        <v>3.1240898462399995</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>3.4657359027985093</v>
+        <v>4.7472110135295519E-3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
-        <v>4.7472110135295519E-3</v>
+        <f>LOG(D22,2.71828182846)</f>
+        <v>1.1391429915634783</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>-62.1</v>
+      </c>
+      <c r="B23">
         <v>33</v>
       </c>
-      <c r="B23">
-        <v>-62.1</v>
-      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>211.04999999999998</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>211.04999999999998</v>
+        <v>3.2601818462399996</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>3.526360524614923</v>
+        <v>4.7382136934375745E-3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
-        <v>4.7382136934375745E-3</v>
+        <f>LOG(D23,2.71828182846)</f>
+        <v>1.1817829748777104</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>-61.7</v>
+      </c>
+      <c r="B24">
         <v>34.5</v>
       </c>
-      <c r="B24">
-        <v>-61.7</v>
-      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>211.45</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>211.45</v>
+        <v>3.3622508462399998</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>3.569532696480116</v>
+        <v>4.7292504138094112E-3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
-        <v>4.7292504138094112E-3</v>
+        <f>LOG(D24,2.71828182846)</f>
+        <v>1.2126106444096654</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>-61.2</v>
+      </c>
+      <c r="B25">
         <v>36</v>
       </c>
-      <c r="B25">
-        <v>-61.2</v>
-      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>211.95</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>211.95</v>
+        <v>3.4643198462399996</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>3.610917912642956</v>
+        <v>4.7180938900684127E-3</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
-        <v>4.7180938900684127E-3</v>
+        <f>LOG(D25,2.71828182846)</f>
+        <v>1.2425163208020931</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>-60.7</v>
+      </c>
+      <c r="B26">
         <v>37</v>
       </c>
-      <c r="B26">
-        <v>-60.7</v>
-      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>212.45</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>212.45</v>
+        <v>3.5323658462399998</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>3.637586159725108</v>
+        <v>4.7069898799717586E-3</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
-        <v>4.7069898799717586E-3</v>
+        <f>LOG(D26,2.71828182846)</f>
+        <v>1.2619678578528344</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>-60.4</v>
+      </c>
+      <c r="B27">
         <v>39</v>
       </c>
-      <c r="B27">
-        <v>-60.4</v>
-      </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>212.74999999999997</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>212.74999999999997</v>
+        <v>3.6684578462399995</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>3.6888794541126404</v>
+        <v>4.7003525264394837E-3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
-        <v>4.7003525264394837E-3</v>
+        <f>LOG(D27,2.71828182846)</f>
+        <v>1.2997713683708036</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>-60</v>
+      </c>
+      <c r="B28">
         <v>40.5</v>
       </c>
-      <c r="B28">
-        <v>-60</v>
-      </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>41.5</v>
+        <v>213.14999999999998</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>213.14999999999998</v>
+        <v>3.7705268462399997</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>3.7256934272353437</v>
+        <v>4.6915317851278443E-3</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
-        <v>4.6915317851278443E-3</v>
+        <f>LOG(D28,2.71828182846)</f>
+        <v>1.3272147387090114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>-59.7</v>
+      </c>
+      <c r="B29">
         <v>42</v>
       </c>
-      <c r="B29">
-        <v>-59.7</v>
-      </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>213.45</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>213.45</v>
+        <v>3.8725958462399999</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>3.7612001156922412</v>
+        <v>4.6849379245724994E-3</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
-        <v>4.6849379245724994E-3</v>
+        <f>LOG(D29,2.71828182846)</f>
+        <v>1.353925043483724</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>-59.3</v>
+      </c>
+      <c r="B30">
         <v>44</v>
       </c>
-      <c r="B30">
-        <v>-59.3</v>
-      </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>213.84999999999997</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>213.84999999999997</v>
+        <v>4.00868784624</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>3.8066624897689825</v>
+        <v>4.6761748889408471E-3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
-        <v>4.6761748889408471E-3</v>
+        <f>LOG(D30,2.71828182846)</f>
+        <v>1.3884639673806893</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>-59.1</v>
+      </c>
+      <c r="B31">
         <v>45</v>
       </c>
-      <c r="B31">
-        <v>-59.1</v>
-      </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>214.04999999999998</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>214.04999999999998</v>
+        <v>4.0767338462399998</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>3.8286413964877504</v>
+        <v>4.6718056528848402E-3</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
-        <v>4.6718056528848402E-3</v>
+        <f>LOG(D31,2.71828182846)</f>
+        <v>1.4052961399396711</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>-58.6</v>
+      </c>
+      <c r="B32">
         <v>47</v>
       </c>
-      <c r="B32">
-        <v>-58.6</v>
-      </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>214.54999999999998</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>214.54999999999998</v>
+        <v>4.2128258462399994</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>3.8712010109065313</v>
+        <v>4.6609182008855747E-3</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
-        <v>4.6609182008855747E-3</v>
+        <f>LOG(D32,2.71828182846)</f>
+        <v>1.4381336449095914</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>-58.3</v>
+      </c>
+      <c r="B33">
         <v>49</v>
       </c>
-      <c r="B33">
-        <v>-58.3</v>
-      </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>214.84999999999997</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>214.84999999999997</v>
+        <v>4.34891784624</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>3.9120230054267719</v>
+        <v>4.6544100535257163E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>4.6544100535257163E-3</v>
+        <f>LOG(D33,2.71828182846)</f>
+        <v>1.4699270431721332</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>-57.9</v>
+      </c>
+      <c r="B34">
         <v>50</v>
       </c>
-      <c r="B34">
-        <v>-57.9</v>
-      </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>215.24999999999997</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>215.24999999999997</v>
+        <v>4.4169638462399998</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>3.9318256327229446</v>
+        <v>4.6457607433217198E-3</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>4.6457607433217198E-3</v>
+        <f>LOG(D34,2.71828182846)</f>
+        <v>1.4854525474411344</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>-57.6</v>
+      </c>
+      <c r="B35">
         <v>52</v>
       </c>
-      <c r="B35">
-        <v>-57.6</v>
-      </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>215.54999999999998</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>215.54999999999998</v>
+        <v>4.5530558462399995</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>3.9702919135507271</v>
+        <v>4.6392948271862678E-3</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
-        <v>4.6392948271862678E-3</v>
+        <f>LOG(D35,2.71828182846)</f>
+        <v>1.5157986220884407</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>-57.2</v>
+      </c>
+      <c r="B36">
         <v>53</v>
       </c>
-      <c r="B36">
-        <v>-57.2</v>
-      </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>215.95</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>215.95</v>
+        <v>4.6211018462399993</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>3.9889840465628734</v>
+        <v>4.6307015512850203E-3</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>4.6307015512850203E-3</v>
+        <f>LOG(D36,2.71828182846)</f>
+        <v>1.5306331715148753</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>-56.9</v>
+      </c>
+      <c r="B37">
         <v>55</v>
       </c>
-      <c r="B37">
-        <v>-56.9</v>
-      </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>216.24999999999997</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>216.24999999999997</v>
+        <v>4.7571938462399999</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>4.0253516907337357</v>
+        <v>4.6242774566473991E-3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
-        <v>4.6242774566473991E-3</v>
+        <f>LOG(D37,2.71828182846)</f>
+        <v>1.5596579663019239</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>-56.4</v>
+      </c>
+      <c r="B38">
         <v>57</v>
       </c>
-      <c r="B38">
-        <v>-56.4</v>
-      </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>216.74999999999997</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>216.74999999999997</v>
+        <v>4.8932858462399995</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>4.0604430105449927</v>
+        <v>4.6136101499423309E-3</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
-        <v>4.6136101499423309E-3</v>
+        <f>LOG(D38,2.71828182846)</f>
+        <v>1.587864030023747</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>-56.1</v>
+      </c>
+      <c r="B39">
         <v>59</v>
       </c>
-      <c r="B39">
-        <v>-56.1</v>
-      </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>217.04999999999998</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>217.04999999999998</v>
+        <v>5.0293778462399992</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>4.0943445622206625</v>
+        <v>4.6072333563695004E-3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>4.6072333563695004E-3</v>
+        <f>LOG(D39,2.71828182846)</f>
+        <v>1.6152962878407338</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>-56.3</v>
+      </c>
+      <c r="B40">
         <v>59.5</v>
       </c>
-      <c r="B40">
-        <v>-56.3</v>
-      </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>60.5</v>
+        <v>216.84999999999997</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>216.84999999999997</v>
+        <v>5.0634008462399995</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>4.1026433650353544</v>
+        <v>4.611482591653217E-3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
-        <v>4.611482591653217E-3</v>
+        <f>LOG(D40,2.71828182846)</f>
+        <v>1.6220383615380618</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>-56.4</v>
+      </c>
+      <c r="B41">
         <v>60</v>
       </c>
-      <c r="B41">
-        <v>-56.4</v>
-      </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>216.74999999999997</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>216.74999999999997</v>
+        <v>5.0974238462399999</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>4.1108738641718672</v>
+        <v>4.6136101499423309E-3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
-        <v>4.6136101499423309E-3</v>
+        <f>LOG(D41,2.71828182846)</f>
+        <v>1.628735283921251</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>-56.3</v>
+      </c>
+      <c r="B42">
         <v>60.5</v>
       </c>
-      <c r="B42">
-        <v>-56.3</v>
-      </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>61.5</v>
+        <v>216.84999999999997</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>216.84999999999997</v>
+        <v>5.1314468462399994</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>4.1190371748110257</v>
+        <v>4.611482591653217E-3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
-        <v>4.611482591653217E-3</v>
+        <f>LOG(D42,2.71828182846)</f>
+        <v>1.6353876557214353</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>-56.5</v>
+      </c>
+      <c r="B43">
         <v>60.5</v>
       </c>
-      <c r="B43">
-        <v>-56.5</v>
-      </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>61.5</v>
+        <v>216.64999999999998</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>216.64999999999998</v>
+        <v>5.1314468462399994</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>4.1190371748110257</v>
+        <v>4.6157396722824838E-3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
-        <v>4.6157396722824838E-3</v>
+        <f>LOG(D43,2.71828182846)</f>
+        <v>1.6353876557214353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>AVERAGE(C41:C43)</f>
+        <v>216.74999999999997</v>
+      </c>
+      <c r="D46">
+        <f>_xlfn.STDEV.S(C41:C43)</f>
+        <v>9.9999999999994316E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f>AVERAGE(D40:D43)</f>
+        <v>5.1059295962399993</v>
+      </c>
+      <c r="D47">
+        <f>_xlfn.STDEV.S(D40:D43)</f>
+        <v>3.2574542487193769E-2</v>
+      </c>
+      <c r="F47">
+        <f>1700/26600</f>
+        <v>6.3909774436090222E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>C46-216.588</f>
+        <v>0.16199999999997772</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>5.1120400000000004</v>
+      </c>
+      <c r="D49">
+        <v>5.1109999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f>28190-26550</f>
+        <v>1640</v>
+      </c>
+      <c r="D57">
+        <f>1640/26550</f>
+        <v>6.1770244821092279E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C976DB2-46A7-460B-B3B3-56BCB7EC0178}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>215.24999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.34891784624</v>
+      </c>
+      <c r="D2">
+        <v>202.84999999999997</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.7971928462399998</v>
+      </c>
+      <c r="F2">
+        <f>LOG(E2/C2,2.71828182846)*8.31446261815324/((1/B2)-(1/D2))</f>
+        <v>25872.362060844745</v>
+      </c>
+      <c r="G2">
+        <f>ABS(F2-(LOG((E2-0.034)/(C2+0.034),2.71828182846)*8.31446261815324/((1/(B2-0.5))-(1/(D2+0.5)))))</f>
+        <v>3129.6944224065228</v>
+      </c>
+      <c r="J2">
+        <v>197.84999999999997</v>
+      </c>
+      <c r="K2">
+        <v>1.15075584624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>216.24999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.7571938462399999</v>
+      </c>
+      <c r="D3">
+        <v>213.45</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.8725958462399999</v>
+      </c>
+      <c r="F3">
+        <f>LOG(E3/C3,2.71828182846)*8.31446261815324/(1/B3-1/D3)</f>
+        <v>28198.903744155403</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">ABS(F3-(LOG((E3-0.034)/(C3+0.034),2.71828182846)*8.31446261815324/((1/(B3-0.5))-(1/(D3+0.5)))))</f>
+        <v>19065.865341907971</v>
+      </c>
+      <c r="J3">
+        <v>198.64999999999998</v>
+      </c>
+      <c r="K3">
+        <v>1.2868478462399999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>216.74999999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.8932858462399995</v>
+      </c>
+      <c r="D4">
+        <v>199.64999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.3889168462399999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="2">LOG(E4/C4,2.71828182846)*8.31446261815324/(1/B4-1/D4)</f>
+        <v>26497.776706117726</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2359.9742277608893</v>
+      </c>
+      <c r="J4">
+        <v>199.64999999999998</v>
+      </c>
+      <c r="K4">
+        <v>1.3889168462399999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>211.04999999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.2601818462399996</v>
+      </c>
+      <c r="D5">
+        <v>216.74999999999997</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.8932858462399995</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>27096.707350708897</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>5030.5584046679323</v>
+      </c>
+      <c r="J5">
+        <v>200.54999999999998</v>
+      </c>
+      <c r="K5">
+        <v>1.4909858462399999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>216.74999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.8932858462399995</v>
+      </c>
+      <c r="D6">
+        <v>202.24999999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.6951238462399998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>26647.963438535171</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2712.5976452216237</v>
+      </c>
+      <c r="J6">
+        <v>201.45</v>
+      </c>
+      <c r="K6">
+        <v>1.5930548462399998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>213.84999999999997</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.00868784624</v>
+      </c>
+      <c r="D7">
+        <v>198.64999999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.2868478462399999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>26403.974225431499</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2740.5912979303066</v>
+      </c>
+      <c r="J7">
+        <v>202.24999999999997</v>
+      </c>
+      <c r="K7">
+        <v>1.6951238462399998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>200.54999999999998</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.4909858462399999</v>
+      </c>
+      <c r="D8">
+        <v>205.54999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.1714458462399997</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>25771.576844653828</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6486.0911271214791</v>
+      </c>
+      <c r="J8">
+        <v>202.84999999999997</v>
+      </c>
+      <c r="K8">
+        <v>1.7971928462399998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>206.64999999999998</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.3755838462399996</v>
+      </c>
+      <c r="D9">
+        <v>207.74999999999997</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5797218462399996</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>26751.44235731013</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>17409.62330773734</v>
+      </c>
+      <c r="J9">
+        <v>203.74999999999997</v>
+      </c>
+      <c r="K9">
+        <v>1.8992618462399997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>211.04999999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.2601818462399996</v>
+      </c>
+      <c r="D10">
+        <v>209.14999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.8519058462399998</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>25844.329613112339</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>37838.485237456945</v>
+      </c>
+      <c r="J10">
+        <v>204.24999999999997</v>
+      </c>
+      <c r="K10">
+        <v>1.9673078462399998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>201.45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.5930548462399998</v>
+      </c>
+      <c r="D11">
+        <v>215.95</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.6211018462399993</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>26566.111879355565</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2383.2493562309937</v>
+      </c>
+      <c r="J11">
+        <v>204.95</v>
+      </c>
+      <c r="K11">
+        <v>2.1033998462399999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(F2:F11)</f>
+        <v>26565.11482202253</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(G2:G11)</f>
+        <v>9915.6730368442004</v>
+      </c>
+      <c r="J12">
+        <v>205.54999999999998</v>
+      </c>
+      <c r="K12">
+        <v>2.1714458462399997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>206.04999999999998</v>
+      </c>
+      <c r="K13">
+        <v>2.23949184624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>206.64999999999998</v>
+      </c>
+      <c r="K14">
+        <v>2.3755838462399996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>207.14999999999998</v>
+      </c>
+      <c r="K15">
+        <v>2.4776528462399998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>207.74999999999997</v>
+      </c>
+      <c r="K16">
+        <v>2.5797218462399996</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>208.24999999999997</v>
+      </c>
+      <c r="K17">
+        <v>2.6477678462399998</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>208.74999999999997</v>
+      </c>
+      <c r="K18">
+        <v>2.7838598462399999</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>209.14999999999998</v>
+      </c>
+      <c r="K19">
+        <v>2.8519058462399998</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>209.64999999999998</v>
+      </c>
+      <c r="K20">
+        <v>2.9539748462399995</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>210.14999999999998</v>
+      </c>
+      <c r="K21">
+        <v>3.0560438462399997</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>210.64999999999998</v>
+      </c>
+      <c r="K22">
+        <v>3.1240898462399995</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>211.04999999999998</v>
+      </c>
+      <c r="K23">
+        <v>3.2601818462399996</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>211.45</v>
+      </c>
+      <c r="K24">
+        <v>3.3622508462399998</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>211.95</v>
+      </c>
+      <c r="K25">
+        <v>3.4643198462399996</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>212.45</v>
+      </c>
+      <c r="K26">
+        <v>3.5323658462399998</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>212.74999999999997</v>
+      </c>
+      <c r="K27">
+        <v>3.6684578462399995</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>213.14999999999998</v>
+      </c>
+      <c r="K28">
+        <v>3.7705268462399997</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>213.45</v>
+      </c>
+      <c r="K29">
+        <v>3.8725958462399999</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>213.84999999999997</v>
+      </c>
+      <c r="K30">
+        <v>4.00868784624</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>214.04999999999998</v>
+      </c>
+      <c r="K31">
+        <v>4.0767338462399998</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>214.54999999999998</v>
+      </c>
+      <c r="K32">
+        <v>4.2128258462399994</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>214.84999999999997</v>
+      </c>
+      <c r="K33">
+        <v>4.34891784624</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>215.24999999999997</v>
+      </c>
+      <c r="K34">
+        <v>4.4169638462399998</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>215.54999999999998</v>
+      </c>
+      <c r="K35">
+        <v>4.5530558462399995</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>215.95</v>
+      </c>
+      <c r="K36">
+        <v>4.6211018462399993</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>216.24999999999997</v>
+      </c>
+      <c r="K37">
+        <v>4.7571938462399999</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>216.74999999999997</v>
+      </c>
+      <c r="K38">
+        <v>4.8932858462399995</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>217.04999999999998</v>
+      </c>
+      <c r="K39">
+        <v>5.0293778462399992</v>
       </c>
     </row>
   </sheetData>
